--- a/资产负债表/605377.xlsx
+++ b/资产负债表/605377.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1502364131.07</v>
+        <v>2283089248.81</v>
       </c>
       <c r="P2" t="n">
-        <v>364104414.36</v>
+        <v>271549353.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>55541898.85</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-18.7845407371</v>
-      </c>
+        <v>103313792.42</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>212118606.75</v>
-      </c>
-      <c r="T2" t="n">
-        <v>18.0389536616</v>
-      </c>
+        <v>320751738.77</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>362769677.24</v>
-      </c>
-      <c r="V2" t="n">
-        <v>44.0335159646</v>
-      </c>
+        <v>415787055.17</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>715419240.3</v>
+        <v>1025124293.73</v>
       </c>
       <c r="X2" t="n">
-        <v>246508503.44</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>33.7581841944</v>
-      </c>
+        <v>283548927.65</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>21390241.28</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>25.6112538902</v>
-      </c>
+        <v>117712.5</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>786944890.77</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>58.765756183</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>27.8590933278</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>5.3091655931</v>
-      </c>
+        <v>1257964955.08</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>148.9972621848</v>
+        <v>162.501113076</v>
       </c>
       <c r="AG2" t="n">
-        <v>47.619563427</v>
+        <v>44.9007542856</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/605377.xlsx
+++ b/资产负债表/605377.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -784,54 +784,70 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-09 00:00:00</t>
+          <t>2020-12-16 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2283089248.81</v>
+        <v>1967653210.37</v>
       </c>
       <c r="P2" t="n">
-        <v>271549353.03</v>
+        <v>301931332.31</v>
       </c>
       <c r="Q2" t="n">
-        <v>103313792.42</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>215506807.88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>79.23902244990001</v>
+      </c>
       <c r="S2" t="n">
-        <v>320751738.77</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>151775981.35</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-28.5086973499</v>
+      </c>
       <c r="U2" t="n">
-        <v>415787055.17</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>358016503.26</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-4.6636011729</v>
+      </c>
       <c r="W2" t="n">
-        <v>1025124293.73</v>
+        <v>882248564.09</v>
       </c>
       <c r="X2" t="n">
-        <v>283548927.65</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>257258612.44</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11.5134678086</v>
+      </c>
       <c r="Z2" t="n">
-        <v>117712.5</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>32240475.79</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1040.031745243</v>
+      </c>
       <c r="AB2" t="n">
-        <v>1257964955.08</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>1085404646.28</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>19.8729360282</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>15.4201717342</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10.3760658959</v>
+      </c>
       <c r="AF2" t="n">
-        <v>162.501113076</v>
+        <v>168.0203343057</v>
       </c>
       <c r="AG2" t="n">
-        <v>44.9007542856</v>
+        <v>44.8376044844</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/605377.xlsx
+++ b/资产负债表/605377.xlsx
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1967653210.37</v>
+        <v>1704774114.27</v>
       </c>
       <c r="P2" t="n">
-        <v>301931332.31</v>
+        <v>345508618.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>215506807.88</v>
+        <v>120234313.34</v>
       </c>
       <c r="R2" t="n">
-        <v>79.23902244990001</v>
+        <v>116.4749780426</v>
       </c>
       <c r="S2" t="n">
-        <v>151775981.35</v>
+        <v>212299924.22</v>
       </c>
       <c r="T2" t="n">
-        <v>-28.5086973499</v>
+        <v>0.0854792858</v>
       </c>
       <c r="U2" t="n">
-        <v>358016503.26</v>
+        <v>375529711.28</v>
       </c>
       <c r="V2" t="n">
-        <v>-4.6636011729</v>
+        <v>3.517392671</v>
       </c>
       <c r="W2" t="n">
-        <v>882248564.09</v>
+        <v>799311478.38</v>
       </c>
       <c r="X2" t="n">
-        <v>257258612.44</v>
+        <v>230697347.59</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5134678086</v>
+        <v>-6.4140407448</v>
       </c>
       <c r="Z2" t="n">
-        <v>32240475.79</v>
+        <v>2828033.16</v>
       </c>
       <c r="AA2" t="n">
-        <v>1040.031745243</v>
+        <v>-86.7788627394</v>
       </c>
       <c r="AB2" t="n">
-        <v>1085404646.28</v>
+        <v>905462635.89</v>
       </c>
       <c r="AC2" t="n">
-        <v>19.8729360282</v>
+        <v>15.0604885437</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.4201717342</v>
+        <v>13.4727646257</v>
       </c>
       <c r="AE2" t="n">
-        <v>10.3760658959</v>
+        <v>11.7263044316</v>
       </c>
       <c r="AF2" t="n">
-        <v>168.0203343057</v>
+        <v>157.1592200639</v>
       </c>
       <c r="AG2" t="n">
-        <v>44.8376044844</v>
+        <v>46.8866503597</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
